--- a/Excel/FuncaoTRANSPOR.xlsx
+++ b/Excel/FuncaoTRANSPOR.xlsx
@@ -1,48 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/clevison_santos_br_ey_com/Documents/Desktop/Videos Março/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDDC421-AE94-4325-82C4-0A24D1A4CC10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C30F19-A9E5-4945-8995-9BEB9B6A4AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="764" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
+    <workbookView xWindow="1371" yWindow="3917" windowWidth="16115" windowHeight="13269" tabRatio="764" activeTab="1" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="5" r:id="rId1"/>
     <sheet name="Aluno" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -248,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,6 +260,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,19 +583,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7901B331-76B6-43BD-9988-5C6178880B19}">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" customWidth="1"/>
-    <col min="5" max="5" width="28.7265625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.08984375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20.53515625" customWidth="1"/>
+    <col min="4" max="4" width="28.921875" customWidth="1"/>
+    <col min="5" max="5" width="28.69140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.07421875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -612,21 +604,21 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:16" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -635,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" s="3" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -644,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" s="3" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -653,9 +645,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:16" s="2" customFormat="1" ht="28.3" x14ac:dyDescent="0.75">
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
@@ -686,12 +678,12 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="2:16" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:16" s="2" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:16" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:16" s="2" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
@@ -700,7 +692,7 @@
         <v>Nome 1</v>
       </c>
     </row>
-    <row r="14" spans="2:16" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:16" s="2" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
@@ -708,7 +700,7 @@
         <v>Ana</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="26" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -721,7 +713,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="26" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
         <v>9</v>
@@ -734,7 +726,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -745,7 +737,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -755,7 +747,7 @@
         <v>Cesaro</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -763,7 +755,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="20" spans="2:12" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -795,7 +787,7 @@
         <v>Cesaro</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="26" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B21" s="2"/>
       <c r="C21" s="6" t="s">
         <v>5</v>
@@ -825,7 +817,7 @@
         <v>Cardoso</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="26" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
         <v>6</v>
@@ -853,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="26" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
         <v>7</v>
@@ -865,7 +857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="26" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
@@ -886,7 +878,7 @@
         <v>Sobrenome 2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="26" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
@@ -904,7 +896,7 @@
         <v>Pereira</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="G26" s="1" t="str">
         <v>Rose</v>
       </c>
@@ -915,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="G27" s="1" t="str">
         <v>Carla</v>
       </c>
@@ -926,7 +918,7 @@
         <v>Andrade</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E28"/>
       <c r="G28" s="1" t="str">
         <v>Cléber</v>
@@ -938,7 +930,7 @@
         <v>Barros</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E29"/>
       <c r="G29" s="1" t="str">
         <v>Cesaro</v>
@@ -950,34 +942,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E30"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E31"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E32"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E33"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E34"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E35"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E36"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E37"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E38"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E39"/>
     </row>
   </sheetData>
@@ -997,19 +989,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C2366F-A5AE-4525-8B8A-10E92265801B}">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" customWidth="1"/>
-    <col min="5" max="5" width="28.7265625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.08984375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20.53515625" customWidth="1"/>
+    <col min="4" max="4" width="28.921875" customWidth="1"/>
+    <col min="5" max="5" width="28.69140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.07421875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:16" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1018,21 +1013,21 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:16" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" s="3" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" s="3" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1059,18 +1054,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:16" s="2" customFormat="1" ht="28.3" x14ac:dyDescent="0.75">
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="D11" s="7" t="str">
+        <f t="array" ref="D11:I11">TRANSPOSE(C11:C16)</f>
+        <v>Nome 1</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <v>Rose</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <v>Carla</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <v>Cléber</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <v>Cesaro</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1079,22 +1087,22 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="2:16" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:16" s="2" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:16" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:16" s="2" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:16" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:16" s="2" customFormat="1" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="26" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -1105,7 +1113,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="26" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:16" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
         <v>9</v>
@@ -1116,7 +1124,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1125,7 +1133,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1133,7 +1141,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1141,7 +1149,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="20" spans="2:12" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -1153,9 +1161,27 @@
         <v>18</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" ht="26" x14ac:dyDescent="0.6">
+      <c r="G20" s="2" t="str">
+        <f t="array" ref="G20:L22">TRANSPOSE(C20:E25)</f>
+        <v>Nome 1</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <v>Rose</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <v>Carla</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <v>Cléber</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <v>Cesaro</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B21" s="2"/>
       <c r="C21" s="6" t="s">
         <v>5</v>
@@ -1166,8 +1192,26 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="26" x14ac:dyDescent="0.6">
+      <c r="G21" s="1" t="str">
+        <v>Sobrenome 1</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <v>Silva</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <v>Souza</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <v>Pereira</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <v>Alves</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <v>Cardoso</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B22" s="2"/>
       <c r="C22" s="6" t="s">
         <v>6</v>
@@ -1176,8 +1220,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" ht="26" x14ac:dyDescent="0.6">
+      <c r="G22" s="1" t="str">
+        <v>Sobrenome 2</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <v>Pereira</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <v>Andrade</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <v>Barros</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
         <v>7</v>
@@ -1189,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:12" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
@@ -1208,41 +1270,42 @@
         <v>15</v>
       </c>
       <c r="E25" s="6"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E28"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E29"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E31"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E32"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E33"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E34"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E35"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E36"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E37"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E38"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E39"/>
     </row>
   </sheetData>
